--- a/excel-files/input.xlsx
+++ b/excel-files/input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>loan amount</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Tenure</t>
+  </si>
+  <si>
+    <t>Interest rate for negative testing</t>
   </si>
 </sst>
 </file>
@@ -356,19 +359,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,8 +382,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1500000</v>
       </c>
@@ -388,6 +395,9 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
